--- a/Table 7.xlsx
+++ b/Table 7.xlsx
@@ -8,7 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="Rejected datasets" sheetId="1" r:id="rId1"/>
-    <sheet name="Used datasets" sheetId="2" r:id="rId2"/>
+    <sheet name="Candidate datasets" sheetId="3" r:id="rId2"/>
+    <sheet name="Used datasets" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="baut0005" localSheetId="0">'Rejected datasets'!$B$16</definedName>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="488">
   <si>
     <t>https://www.spandidos-publications.com/etm/11/6/2095</t>
   </si>
@@ -1452,6 +1453,174 @@
   </si>
   <si>
     <t>notes</t>
+  </si>
+  <si>
+    <t>NorikoHayashi</t>
+  </si>
+  <si>
+    <t>According to our normality test using the Shapiro–Wilk test in the dplyr package in R, the majority of the proteins showed normal distribution. Thus, p values between the comparison groups were calculated by Student’s two-sample t-test.</t>
+  </si>
+  <si>
+    <t>cell line</t>
+  </si>
+  <si>
+    <t>animal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LC–MS/MS </t>
+  </si>
+  <si>
+    <t>HEK293 (5 samples)</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC8034657/</t>
+  </si>
+  <si>
+    <t>hiPSC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no control </t>
+  </si>
+  <si>
+    <t>Set L16</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5409181/</t>
+  </si>
+  <si>
+    <t>2D-LC-MS/MS</t>
+  </si>
+  <si>
+    <t>G93A (SOD1 ALS), NSC34 (WT) (6 samples)</t>
+  </si>
+  <si>
+    <t>Set L17</t>
+  </si>
+  <si>
+    <t>Set L18</t>
+  </si>
+  <si>
+    <t>SOD1G93A  (5ALS, 5HC)</t>
+  </si>
+  <si>
+    <t>Dictionary</t>
+  </si>
+  <si>
+    <t>Set L19</t>
+  </si>
+  <si>
+    <t>Normalized reporter ion intensities (CSF iTRAQ) and LFQ intensities (tissue) were log2 transformed for further statistical analysis. Groups were compared by Student´s t test (two-tailed)</t>
+  </si>
+  <si>
+    <t>Altered nucleocytoplasmic proteome and transcriptome distributions in an in vitro model of amyotrophic lateral sclerosis</t>
+  </si>
+  <si>
+    <t>10./5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">raw </t>
+  </si>
+  <si>
+    <t>nUHPLC LC-MS/MS)</t>
+  </si>
+  <si>
+    <t>41 ALS/19 PD/ 20 HC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LC-MS/MS </t>
+  </si>
+  <si>
+    <t>normlased</t>
+  </si>
+  <si>
+    <t>skin cell line</t>
+  </si>
+  <si>
+    <t> LC-MS/MS</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Meta-analysis of human and mouse ALS astrocytes reveals multi-omic signatures of inflammatory reactive states</t>
+  </si>
+  <si>
+    <t>Oliver J. Ziff</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/34963663/</t>
+  </si>
+  <si>
+    <t>Batch effect, also no HC, only NC, not specified</t>
+  </si>
+  <si>
+    <t>overlapping dataset with C9</t>
+  </si>
+  <si>
+    <t>no individual data available, no HC, only NC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Only 2 patient data available </t>
+  </si>
+  <si>
+    <t>Only 4 patients data available</t>
+  </si>
+  <si>
+    <t>Dara type</t>
+  </si>
+  <si>
+    <t>Distribution</t>
+  </si>
+  <si>
+    <t>Issues</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Volvano</t>
+  </si>
+  <si>
+    <t>Dataset</t>
+  </si>
+  <si>
+    <t>Emanuela Leoni &amp; Andrea Malaspina</t>
+  </si>
+  <si>
+    <t>MS -TMT multiplex quantitative mass spectrometry</t>
+  </si>
+  <si>
+    <t>normalised, P value</t>
+  </si>
+  <si>
+    <t>no healthy control; bulbar/limp comparison</t>
+  </si>
+  <si>
+    <t>Maria Giovanna Garone</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC7366621/pdf/41598_2020_Article_68794.pdf</t>
+  </si>
+  <si>
+    <t>hiPSC- P5252</t>
+  </si>
+  <si>
+    <t>only m/z ration provided</t>
+  </si>
+  <si>
+    <t>only normalized heavy/light ratio</t>
+  </si>
+  <si>
+    <t>K562 cells</t>
+  </si>
+  <si>
+    <t>MS/MS</t>
+  </si>
+  <si>
+    <t>ESC lines (iSpMNs and iCrMNs)</t>
+  </si>
+  <si>
+    <t>only score provided</t>
   </si>
 </sst>
 </file>
@@ -1532,13 +1701,6 @@
     <font>
       <i/>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1713,6 +1875,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1740,7 +1909,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -1897,12 +2066,287 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1924,9 +2368,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1935,16 +2379,16 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1971,210 +2415,251 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2504,7 +2989,7 @@
   <dimension ref="A1:J88"/>
   <sheetViews>
     <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4029,7 +4514,7 @@
         <v>40817</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>215</v>
+        <v>467</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>15</v>
@@ -4400,16 +4885,27 @@
       <c r="J81" s="16"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="16"/>
-      <c r="C82" s="16"/>
-      <c r="D82" s="16"/>
-      <c r="E82" s="16"/>
+      <c r="A82" s="103" t="s">
+        <v>461</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="C82" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="D82" s="25">
+        <v>44558</v>
+      </c>
+      <c r="E82" s="16" t="s">
+        <v>468</v>
+      </c>
       <c r="H82" s="16"/>
       <c r="I82" s="16"/>
       <c r="J82" s="16"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="16"/>
+      <c r="A83" s="102"/>
       <c r="C83" s="16"/>
       <c r="D83" s="16"/>
       <c r="E83" s="16"/>
@@ -4420,7 +4916,7 @@
       <c r="J83" s="16"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="16"/>
+      <c r="A84" s="102"/>
       <c r="C84" s="16"/>
       <c r="D84" s="16"/>
       <c r="E84" s="16"/>
@@ -4476,14 +4972,14 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A80 A82:A1048576">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A74">
-    <cfRule type="duplicateValues" dxfId="1" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4492,10 +4988,1532 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N28" sqref="N28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="20" max="20" width="13.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="111" t="s">
+        <v>474</v>
+      </c>
+      <c r="B1" s="112" t="s">
+        <v>263</v>
+      </c>
+      <c r="C1" s="112" t="s">
+        <v>264</v>
+      </c>
+      <c r="D1" s="112" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="112" t="s">
+        <v>265</v>
+      </c>
+      <c r="F1" s="112" t="s">
+        <v>266</v>
+      </c>
+      <c r="G1" s="112" t="s">
+        <v>267</v>
+      </c>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112" t="s">
+        <v>268</v>
+      </c>
+      <c r="J1" s="112" t="s">
+        <v>270</v>
+      </c>
+      <c r="K1" s="112" t="s">
+        <v>271</v>
+      </c>
+      <c r="L1" s="112" t="s">
+        <v>272</v>
+      </c>
+      <c r="M1" s="112"/>
+      <c r="N1" s="112" t="s">
+        <v>273</v>
+      </c>
+      <c r="O1" s="112" t="s">
+        <v>274</v>
+      </c>
+      <c r="P1" s="112" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q1" s="112"/>
+      <c r="R1" s="112" t="s">
+        <v>276</v>
+      </c>
+      <c r="S1" s="112" t="s">
+        <v>277</v>
+      </c>
+      <c r="T1" s="113" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="108" t="s">
+        <v>279</v>
+      </c>
+      <c r="B2" s="109" t="s">
+        <v>280</v>
+      </c>
+      <c r="C2" s="109" t="s">
+        <v>281</v>
+      </c>
+      <c r="D2" s="109" t="s">
+        <v>282</v>
+      </c>
+      <c r="E2" s="109" t="s">
+        <v>283</v>
+      </c>
+      <c r="F2" s="109" t="s">
+        <v>284</v>
+      </c>
+      <c r="G2" s="109" t="s">
+        <v>285</v>
+      </c>
+      <c r="H2" s="109" t="s">
+        <v>286</v>
+      </c>
+      <c r="I2" s="109" t="s">
+        <v>287</v>
+      </c>
+      <c r="J2" s="109" t="s">
+        <v>288</v>
+      </c>
+      <c r="K2" s="109" t="s">
+        <v>289</v>
+      </c>
+      <c r="L2" s="109" t="s">
+        <v>290</v>
+      </c>
+      <c r="M2" s="109"/>
+      <c r="N2" s="109" t="s">
+        <v>291</v>
+      </c>
+      <c r="O2" s="109"/>
+      <c r="P2" s="109" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q2" s="109"/>
+      <c r="R2" s="109" t="s">
+        <v>293</v>
+      </c>
+      <c r="S2" s="109" t="s">
+        <v>292</v>
+      </c>
+      <c r="T2" s="110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="104" t="s">
+        <v>294</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14" t="s">
+        <v>300</v>
+      </c>
+      <c r="O3" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="P3" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q3" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="R3" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="S3" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="T3" s="105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="104" t="s">
+        <v>303</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>308</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="L4" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="M4" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="N4" s="14" t="s">
+        <v>300</v>
+      </c>
+      <c r="O4" s="14" t="s">
+        <v>450</v>
+      </c>
+      <c r="P4" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q4" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="T4" s="105"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="104" t="s">
+        <v>315</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>320</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>321</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>322</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="K5" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="L5" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14" t="s">
+        <v>300</v>
+      </c>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="S5" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="T5" s="105"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="104" t="s">
+        <v>326</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>328</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>330</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>308</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>331</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="L6" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q6" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="R6" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="S6" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="T6" s="105">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="104" t="s">
+        <v>333</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>335</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>336</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>338</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="L7" s="14" t="s">
+        <v>340</v>
+      </c>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="S7" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="T7" s="105">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="104" t="s">
+        <v>341</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>342</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>343</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>344</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14" t="s">
+        <v>345</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="L8" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14" t="s">
+        <v>300</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>346</v>
+      </c>
+      <c r="P8" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q8" s="14" t="s">
+        <v>347</v>
+      </c>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="105">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="104" t="s">
+        <v>348</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>349</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>432</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>350</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>308</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>352</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>288</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="L9" s="14" t="s">
+        <v>353</v>
+      </c>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q9" s="14" t="s">
+        <v>354</v>
+      </c>
+      <c r="R9" s="14"/>
+      <c r="S9" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="T9" s="105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="104" t="s">
+        <v>355</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>357</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>358</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="L10" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14" t="s">
+        <v>300</v>
+      </c>
+      <c r="O10" s="14" t="s">
+        <v>362</v>
+      </c>
+      <c r="P10" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q10" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="T10" s="105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="104" t="s">
+        <v>364</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>366</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>367</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>368</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>369</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>370</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="K11" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="L11" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14" t="s">
+        <v>300</v>
+      </c>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="T11" s="105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="104" t="s">
+        <v>372</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>375</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>376</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>379</v>
+      </c>
+      <c r="J12" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="O12" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="P12" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q12" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="T12" s="105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="104" t="s">
+        <v>383</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>384</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>385</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>321</v>
+      </c>
+      <c r="I13" s="14" t="s">
+        <v>386</v>
+      </c>
+      <c r="J13" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="K13" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="L13" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="O13" s="14" t="s">
+        <v>388</v>
+      </c>
+      <c r="P13" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q13" s="14" t="s">
+        <v>389</v>
+      </c>
+      <c r="R13" s="14" t="s">
+        <v>390</v>
+      </c>
+      <c r="S13" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="T13" s="105" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="104" t="s">
+        <v>391</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>393</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>394</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>395</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>321</v>
+      </c>
+      <c r="I14" s="14" t="s">
+        <v>396</v>
+      </c>
+      <c r="J14" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="K14" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="L14" s="14" t="s">
+        <v>398</v>
+      </c>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="O14" s="14" t="s">
+        <v>399</v>
+      </c>
+      <c r="P14" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="T14" s="105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="114"/>
+      <c r="B15" s="14" t="s">
+        <v>421</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>422</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>423</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>405</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="J15" s="14" t="s">
+        <v>453</v>
+      </c>
+      <c r="K15" s="14" t="s">
+        <v>464</v>
+      </c>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="105"/>
+    </row>
+    <row r="16" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="14"/>
+      <c r="B16" s="134" t="s">
+        <v>419</v>
+      </c>
+      <c r="C16" s="117" t="s">
+        <v>475</v>
+      </c>
+      <c r="D16" s="118" t="s">
+        <v>420</v>
+      </c>
+      <c r="E16" s="119" t="s">
+        <v>319</v>
+      </c>
+      <c r="F16" s="119" t="s">
+        <v>284</v>
+      </c>
+      <c r="G16" s="119" t="s">
+        <v>476</v>
+      </c>
+      <c r="H16" s="117">
+        <v>24</v>
+      </c>
+      <c r="I16" s="135">
+        <v>1124</v>
+      </c>
+      <c r="J16" s="136" t="s">
+        <v>477</v>
+      </c>
+      <c r="K16" s="120" t="s">
+        <v>478</v>
+      </c>
+      <c r="L16" s="115"/>
+      <c r="M16" s="115"/>
+      <c r="N16" s="115"/>
+      <c r="O16" s="115"/>
+      <c r="P16" s="115"/>
+      <c r="Q16" s="115"/>
+      <c r="R16" s="115"/>
+      <c r="S16" s="115"/>
+      <c r="T16" s="116"/>
+    </row>
+    <row r="17" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="133"/>
+      <c r="B17" s="78" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="78" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="78" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="78" t="s">
+        <v>283</v>
+      </c>
+      <c r="F17" s="78" t="s">
+        <v>284</v>
+      </c>
+      <c r="G17" s="78" t="s">
+        <v>454</v>
+      </c>
+      <c r="H17" s="78" t="s">
+        <v>455</v>
+      </c>
+      <c r="I17" s="78" t="s">
+        <v>455</v>
+      </c>
+      <c r="J17" s="78" t="s">
+        <v>202</v>
+      </c>
+      <c r="K17" s="78" t="s">
+        <v>465</v>
+      </c>
+      <c r="L17" s="78"/>
+      <c r="M17" s="78"/>
+      <c r="N17" s="78"/>
+      <c r="O17" s="78"/>
+      <c r="P17" s="78"/>
+      <c r="Q17" s="78"/>
+      <c r="R17" s="78"/>
+      <c r="S17" s="78"/>
+      <c r="T17" s="107"/>
+    </row>
+    <row r="18" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="124" t="s">
+        <v>474</v>
+      </c>
+      <c r="B19" s="125" t="s">
+        <v>400</v>
+      </c>
+      <c r="C19" s="125" t="s">
+        <v>264</v>
+      </c>
+      <c r="D19" s="125" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="125" t="s">
+        <v>265</v>
+      </c>
+      <c r="F19" s="125" t="s">
+        <v>266</v>
+      </c>
+      <c r="G19" s="125" t="s">
+        <v>267</v>
+      </c>
+      <c r="H19" s="125"/>
+      <c r="I19" s="125" t="s">
+        <v>401</v>
+      </c>
+      <c r="J19" s="125" t="s">
+        <v>269</v>
+      </c>
+      <c r="K19" s="125" t="s">
+        <v>270</v>
+      </c>
+      <c r="L19" s="125" t="s">
+        <v>271</v>
+      </c>
+      <c r="M19" s="125" t="s">
+        <v>469</v>
+      </c>
+      <c r="N19" s="125" t="s">
+        <v>470</v>
+      </c>
+      <c r="O19" s="125" t="s">
+        <v>471</v>
+      </c>
+      <c r="P19" s="125" t="s">
+        <v>472</v>
+      </c>
+      <c r="Q19" s="125"/>
+      <c r="R19" s="125" t="s">
+        <v>473</v>
+      </c>
+      <c r="S19" s="125" t="s">
+        <v>277</v>
+      </c>
+      <c r="T19" s="126" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" s="129" t="s">
+        <v>402</v>
+      </c>
+      <c r="B20" s="130" t="s">
+        <v>223</v>
+      </c>
+      <c r="C20" s="130" t="s">
+        <v>224</v>
+      </c>
+      <c r="D20" s="130" t="s">
+        <v>225</v>
+      </c>
+      <c r="E20" s="130" t="s">
+        <v>434</v>
+      </c>
+      <c r="F20" s="130" t="s">
+        <v>435</v>
+      </c>
+      <c r="G20" s="130" t="s">
+        <v>436</v>
+      </c>
+      <c r="H20" s="130" t="s">
+        <v>321</v>
+      </c>
+      <c r="I20" s="130" t="s">
+        <v>437</v>
+      </c>
+      <c r="J20" s="130">
+        <v>7545</v>
+      </c>
+      <c r="K20" s="130" t="s">
+        <v>202</v>
+      </c>
+      <c r="L20" s="130" t="s">
+        <v>310</v>
+      </c>
+      <c r="M20" s="130" t="s">
+        <v>202</v>
+      </c>
+      <c r="N20" s="130" t="s">
+        <v>300</v>
+      </c>
+      <c r="O20" s="130"/>
+      <c r="P20" s="130" t="s">
+        <v>399</v>
+      </c>
+      <c r="Q20" s="130"/>
+      <c r="R20" s="130"/>
+      <c r="S20" s="130"/>
+      <c r="T20" s="131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" s="104" t="s">
+        <v>403</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>438</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>404</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>435</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>405</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>406</v>
+      </c>
+      <c r="I21" s="14" t="s">
+        <v>439</v>
+      </c>
+      <c r="J21" s="14">
+        <v>1144</v>
+      </c>
+      <c r="K21" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="L21" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="M21" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="P21" s="14" t="s">
+        <v>399</v>
+      </c>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="S21" s="14"/>
+      <c r="T21" s="105"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" s="104" t="s">
+        <v>441</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>451</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>442</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>434</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>443</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>321</v>
+      </c>
+      <c r="I22" s="14" t="s">
+        <v>444</v>
+      </c>
+      <c r="J22" s="14">
+        <v>605</v>
+      </c>
+      <c r="K22" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="L22" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="M22" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="N22" s="14" t="s">
+        <v>300</v>
+      </c>
+      <c r="O22" s="14"/>
+      <c r="P22" s="14" t="s">
+        <v>399</v>
+      </c>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="14"/>
+      <c r="S22" s="14"/>
+      <c r="T22" s="105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" s="104" t="s">
+        <v>445</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>407</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>408</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>409</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>404</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>405</v>
+      </c>
+      <c r="H23" s="14" t="s">
+        <v>406</v>
+      </c>
+      <c r="I23" s="14" t="s">
+        <v>410</v>
+      </c>
+      <c r="J23" s="14">
+        <v>5497</v>
+      </c>
+      <c r="K23" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="L23" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="M23" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="N23" s="14" t="s">
+        <v>300</v>
+      </c>
+      <c r="O23" s="14" t="s">
+        <v>411</v>
+      </c>
+      <c r="P23" s="14" t="s">
+        <v>399</v>
+      </c>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="14"/>
+      <c r="S23" s="14"/>
+      <c r="T23" s="105">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" s="104" t="s">
+        <v>446</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>376</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>435</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="H24" s="14" t="s">
+        <v>406</v>
+      </c>
+      <c r="I24" s="14" t="s">
+        <v>447</v>
+      </c>
+      <c r="J24" s="14">
+        <v>618</v>
+      </c>
+      <c r="K24" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="N24" s="14" t="s">
+        <v>300</v>
+      </c>
+      <c r="O24" s="14" t="s">
+        <v>448</v>
+      </c>
+      <c r="P24" s="14" t="s">
+        <v>399</v>
+      </c>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="14"/>
+      <c r="S24" s="14"/>
+      <c r="T24" s="105"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" s="104" t="s">
+        <v>449</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>412</v>
+      </c>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14" t="s">
+        <v>413</v>
+      </c>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14" t="s">
+        <v>414</v>
+      </c>
+      <c r="G25" s="14" t="s">
+        <v>415</v>
+      </c>
+      <c r="H25" s="14" t="s">
+        <v>416</v>
+      </c>
+      <c r="I25" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="J25" s="14">
+        <v>4143</v>
+      </c>
+      <c r="K25" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14" t="s">
+        <v>300</v>
+      </c>
+      <c r="O25" s="14" t="s">
+        <v>346</v>
+      </c>
+      <c r="P25" s="14" t="s">
+        <v>399</v>
+      </c>
+      <c r="Q25" s="14" t="s">
+        <v>389</v>
+      </c>
+      <c r="R25" s="14" t="s">
+        <v>399</v>
+      </c>
+      <c r="S25" s="14"/>
+      <c r="T25" s="105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" s="104"/>
+      <c r="B26" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>434</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="G26" s="14" t="s">
+        <v>456</v>
+      </c>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="14"/>
+      <c r="S26" s="14"/>
+      <c r="T26" s="105"/>
+    </row>
+    <row r="27" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="104"/>
+      <c r="B27" s="127" t="s">
+        <v>231</v>
+      </c>
+      <c r="C27" s="121" t="s">
+        <v>232</v>
+      </c>
+      <c r="D27" s="69" t="s">
+        <v>233</v>
+      </c>
+      <c r="E27" s="121" t="s">
+        <v>434</v>
+      </c>
+      <c r="F27" s="121" t="s">
+        <v>284</v>
+      </c>
+      <c r="G27" s="123" t="s">
+        <v>182</v>
+      </c>
+      <c r="H27" s="14"/>
+      <c r="I27" s="122" t="s">
+        <v>484</v>
+      </c>
+      <c r="J27" s="122">
+        <v>1500</v>
+      </c>
+      <c r="K27" s="121" t="s">
+        <v>457</v>
+      </c>
+      <c r="L27" s="121" t="s">
+        <v>483</v>
+      </c>
+      <c r="M27" s="121"/>
+      <c r="N27" s="121"/>
+      <c r="O27" s="121"/>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="14"/>
+      <c r="R27" s="14"/>
+      <c r="S27" s="14"/>
+      <c r="T27" s="105"/>
+    </row>
+    <row r="28" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="104"/>
+      <c r="B28" s="127" t="s">
+        <v>240</v>
+      </c>
+      <c r="C28" s="121" t="s">
+        <v>241</v>
+      </c>
+      <c r="D28" s="69" t="s">
+        <v>242</v>
+      </c>
+      <c r="E28" s="121" t="s">
+        <v>434</v>
+      </c>
+      <c r="F28" s="121" t="s">
+        <v>435</v>
+      </c>
+      <c r="G28" s="123" t="s">
+        <v>485</v>
+      </c>
+      <c r="H28" s="14"/>
+      <c r="I28" s="122" t="s">
+        <v>486</v>
+      </c>
+      <c r="J28" s="122">
+        <v>8786</v>
+      </c>
+      <c r="K28" s="121" t="s">
+        <v>324</v>
+      </c>
+      <c r="L28" s="121" t="s">
+        <v>487</v>
+      </c>
+      <c r="M28" s="121"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14" t="s">
+        <v>460</v>
+      </c>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="14"/>
+      <c r="S28" s="14"/>
+      <c r="T28" s="105"/>
+    </row>
+    <row r="29" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="104"/>
+      <c r="B29" s="128" t="s">
+        <v>221</v>
+      </c>
+      <c r="C29" s="121" t="s">
+        <v>479</v>
+      </c>
+      <c r="D29" s="69" t="s">
+        <v>480</v>
+      </c>
+      <c r="E29" s="121" t="s">
+        <v>434</v>
+      </c>
+      <c r="F29" s="121" t="s">
+        <v>284</v>
+      </c>
+      <c r="G29" s="121" t="s">
+        <v>436</v>
+      </c>
+      <c r="H29" s="14"/>
+      <c r="I29" s="122" t="s">
+        <v>481</v>
+      </c>
+      <c r="J29" s="122">
+        <v>4380</v>
+      </c>
+      <c r="K29" s="121" t="s">
+        <v>202</v>
+      </c>
+      <c r="L29" s="14" t="s">
+        <v>482</v>
+      </c>
+      <c r="M29" s="14"/>
+      <c r="O29" s="14"/>
+      <c r="P29" s="14"/>
+      <c r="Q29" s="14"/>
+      <c r="R29" s="14"/>
+      <c r="S29" s="14"/>
+      <c r="T29" s="105"/>
+    </row>
+    <row r="30" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="106"/>
+      <c r="B30" s="78" t="s">
+        <v>246</v>
+      </c>
+      <c r="C30" s="78" t="s">
+        <v>247</v>
+      </c>
+      <c r="D30" s="78" t="s">
+        <v>248</v>
+      </c>
+      <c r="E30" s="78" t="s">
+        <v>458</v>
+      </c>
+      <c r="F30" s="78" t="s">
+        <v>284</v>
+      </c>
+      <c r="G30" s="78" t="s">
+        <v>459</v>
+      </c>
+      <c r="H30" s="78"/>
+      <c r="I30" s="78"/>
+      <c r="J30" s="132"/>
+      <c r="K30" s="78" t="s">
+        <v>457</v>
+      </c>
+      <c r="L30" s="78" t="s">
+        <v>440</v>
+      </c>
+      <c r="M30" s="78"/>
+      <c r="N30" s="78"/>
+      <c r="O30" s="78"/>
+      <c r="P30" s="78"/>
+      <c r="Q30" s="78"/>
+      <c r="R30" s="78"/>
+      <c r="S30" s="78"/>
+      <c r="T30" s="107"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B29:B1048576 B1:B26 C27 D28">
+    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
